--- a/nafees.xlsx
+++ b/nafees.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t xml:space="preserve">Olaf Goldner</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t xml:space="preserve">moore.ludwig@example.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hello this editing part</t>
   </si>
   <si>
     <t xml:space="preserve">https://dev.to/rizqyep/simple-crud-rest-api-with-lumen-mysql-eloquent-orm-dkf</t>
@@ -159,10 +162,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -269,6 +272,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I8" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="n">
         <v>123</v>
@@ -276,7 +284,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
